--- a/data/trans_bre/P23_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>-6,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>432,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 5,14</t>
+          <t>-7,63; 5,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 3,34</t>
+          <t>-4,08; 5,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,21</t>
+          <t>-0,34; 7,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 8,18</t>
+          <t>5,83; 18,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,4; 111,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 48,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 193,08</t>
+          <t>-62,94; 113,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 83,4</t>
+          <t>-35,08; 90,26</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 211,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>101,27; 2009,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>70,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,21%</t>
+          <t>-24,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-20,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,01</t>
+          <t>-0,12; 9,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 1,17</t>
+          <t>-6,66; 1,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,64</t>
+          <t>-2,02; 3,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 2,26</t>
+          <t>-10,61; 2,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 146,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,6; 27,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 71,98</t>
+          <t>-4,97; 212,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 22,43</t>
+          <t>-65,19; 37,1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-27,06; 78,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-67,6; 37,66</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-28,98%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>-25,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>-37,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36,6%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,99%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,78</t>
+          <t>-8,34; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 1,36</t>
+          <t>-6,91; 1,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,39</t>
+          <t>-0,95; 3,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 6,98</t>
+          <t>-3,45; 4,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-65,87; 135,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,25; 80,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 144,67</t>
+          <t>-89,44; 146,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 205,05</t>
+          <t>-79,36; 80,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-23,63; 150,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-39,69; 92,1</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,48%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>-22,64%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37,71%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,26</t>
+          <t>0,3; 6,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,96</t>
+          <t>-5,77; 1,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,15</t>
+          <t>-1,92; 6,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 93,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 19,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 69,24</t>
+          <t>3,17; 178,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 33,15</t>
+          <t>-62,24; 37,57</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-27,62; 161,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41,26%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-17,82%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30,92%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 4,41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 0,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 3,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 4,38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 103,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-42,12; 15,04</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 77,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-18,57; 80,25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_7_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,77</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-6,65%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10,22%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>65,12%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>432,48%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-0.3429495162481616</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.9117038071438501</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.676115009788551</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.79053412422491</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.04263294584405381</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.09832807851551187</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6500986147522104</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>4.389269521285129</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 5,53</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 5,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 7,9</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 18,59</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-62,94; 113,51</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-35,08; 90,26</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 211,17</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>101,27; 2009,59</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.895556522026755</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.281895260394058</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4038773418413668</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.62036021778944</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.6162658963764823</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3550719371221328</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.0821693663803756</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>1.034984640124527</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.443727126623524</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.800922578216483</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.936951005414904</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>18.91258942696497</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.199577474744374</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.885939824934847</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.142421499601479</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>21.12970645218838</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,89</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>70,11%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-24,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>14,29%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-20,89%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 9,03</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 1,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 3,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,61; 2,21</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 212,74</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-65,19; 37,1</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-27,06; 78,4</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-67,6; 37,66</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>3.899879210960738</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.192879627151158</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7690311497822622</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.804597137980399</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.6958228799245284</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1908029778248701</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1192211948260321</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.2010668009977254</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-25,36%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-37,84%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>36,6%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,99%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.2091222890259405</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.902602326074598</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.272366853543609</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.6246103752579</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.05357085863981942</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6359974053808116</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2941687620697036</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.6828661157076049</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 2,09</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,91; 1,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 3,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 4,33</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-89,44; 146,12</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-79,36; 80,13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-23,63; 150,62</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-39,69; 92,1</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.758483456090822</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.753947840739804</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.765757817576466</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.278894630087573</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>2.184483599544814</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4513665982671003</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.7769191152397706</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.4030958437404898</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>65,51%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-22,64%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>37,71%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.4728254246244117</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.668731312615494</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.225535856598033</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4184477446535079</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.1392174935875764</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3812314567233516</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3596544191132787</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.06567511928262025</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 6,58</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 1,88</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 6,55</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,17; 178,97</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-62,24; 37,57</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-27,62; 161,07</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.4473179746066</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.794373514794919</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.9977697738044837</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.449266187684767</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8573357244877735</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7953879177189394</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2397915834339448</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3996701281743563</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.448539606988383</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.283754959957933</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.477340474196778</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.378403110137233</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.006298675262637</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7836599267570463</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.518398407791427</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.9695427097409354</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>41,26%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-17,82%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>31,56%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>30,92%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 4,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 0,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 3,39</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 4,38</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 103,99</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-42,12; 15,04</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 77,25</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-18,57; 80,25</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.662206632631331</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.8188786879390688</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.579642286679429</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.948857722419446</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.3200018898820008</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1312551157415427</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2966761463179812</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.283272059308368</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.9375052032057284</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.726679693586489</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3666736488462471</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.692734262258357</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.1481013453993003</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4476542513649197</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.06944501849770691</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2927704084269793</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.576289846897712</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.366786174300123</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.34958037132224</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.000986188610159</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>1.207316446299757</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.309670475035482</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7326341930020513</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9307766629001052</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
